--- a/target/classes/com/qa/hs/keyword/scenarios/hubspot_scenarios.xlsx
+++ b/target/classes/com/qa/hs/keyword/scenarios/hubspot_scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="19300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
